--- a/csv/model/CIMS_market share limits/formula_CIMS_market share limits_MB.xlsx
+++ b/csv/model/CIMS_market share limits/formula_CIMS_market share limits_MB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_market share limits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF9E8C0D-10B5-4899-A2B6-39037C2734D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5961CA94-752D-4DF6-8BD4-3EFF6A9086FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1800" windowWidth="51840" windowHeight="21120" xr2:uid="{3816835C-A47F-4AF4-A103-A55DC18A6320}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9C0A8FDA-683F-4286-9095-81DD9CB5F419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -820,21 +820,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6587CB68-3BE0-45F5-BA1A-0672DA219733}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98D985E-3DBE-45B6-85BE-B82E1D9DB518}">
   <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -908,7 +908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>111</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>0.91175093632958804</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>0.91175093632958804</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>111</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>8.8249063670411895E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>111</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>8.8249063670411895E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>120</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>124</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>127</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>130</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>130</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>130</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>135</v>
       </c>

--- a/csv/model/CIMS_market share limits/formula_CIMS_market share limits_MB.xlsx
+++ b/csv/model/CIMS_market share limits/formula_CIMS_market share limits_MB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_market share limits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5961CA94-752D-4DF6-8BD4-3EFF6A9086FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88ED7CF4-2440-4EC5-B276-199B60F808E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9C0A8FDA-683F-4286-9095-81DD9CB5F419}"/>
+    <workbookView xWindow="34965" yWindow="3495" windowWidth="17250" windowHeight="8865" xr2:uid="{ED779373-62D9-490A-802C-D99FB324CD04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,13 +80,13 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>CIMS.CAN.MB.Natural Gas Extraction.Direct Heat</t>
+    <t>CIMS.CAN.MB.Natural Gas Production.Direct Heat</t>
   </si>
   <si>
     <t>MB</t>
   </si>
   <si>
-    <t>Natural Gas Extraction</t>
+    <t>Natural Gas Production</t>
   </si>
   <si>
     <t>Direct Heat</t>
@@ -820,21 +820,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98D985E-3DBE-45B6-85BE-B82E1D9DB518}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE82608-A040-47A9-A387-C50DF0713DD8}">
   <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -908,7 +908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>111</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>0.91175093632958804</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>0.91175093632958804</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>111</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>8.8249063670411895E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>111</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>8.8249063670411895E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>120</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>124</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>127</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>130</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>130</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>130</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>135</v>
       </c>

--- a/csv/model/CIMS_market share limits/formula_CIMS_market share limits_MB.xlsx
+++ b/csv/model/CIMS_market share limits/formula_CIMS_market share limits_MB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_market share limits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88ED7CF4-2440-4EC5-B276-199B60F808E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B32C402-2744-4A75-8A86-3FCBA2086180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34965" yWindow="3495" windowWidth="17250" windowHeight="8865" xr2:uid="{ED779373-62D9-490A-802C-D99FB324CD04}"/>
+    <workbookView xWindow="40680" yWindow="6150" windowWidth="17280" windowHeight="8880" xr2:uid="{DDFA6FA9-6C25-450F-AC78-D9C1D8E01CDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="129">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -80,19 +80,19 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>CIMS.CAN.MB.Natural Gas Production.Direct Heat</t>
+    <t>CIMS.CAN.MB.Petroleum Crude.Steam</t>
   </si>
   <si>
     <t>MB</t>
   </si>
   <si>
-    <t>Natural Gas Production</t>
-  </si>
-  <si>
-    <t>Direct Heat</t>
-  </si>
-  <si>
-    <t>Boilers improved thermal eff CCS</t>
+    <t>Petroleum Crude</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>BPST NG 30 MW CCS</t>
   </si>
   <si>
     <t>Market share new_max</t>
@@ -101,18 +101,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>CIMS.CAN.MB.Petroleum Crude.Steam.Cogenerators</t>
-  </si>
-  <si>
-    <t>Petroleum Crude</t>
-  </si>
-  <si>
-    <t>Cogenerators</t>
-  </si>
-  <si>
-    <t>BPST NG 30 MW CCS</t>
-  </si>
-  <si>
     <t>Petcoke CCS</t>
   </si>
   <si>
@@ -236,25 +224,19 @@
     <t>DC solid state motor 500 hp</t>
   </si>
   <si>
-    <t>CIMS.CAN.MB.Ethanol.Steam.Boilers</t>
+    <t>CIMS.CAN.MB.Ethanol.Steam</t>
   </si>
   <si>
     <t>Ethanol</t>
   </si>
   <si>
-    <t>Boilers</t>
-  </si>
-  <si>
     <t>Boilers Coal CCS</t>
   </si>
   <si>
     <t>Boilers NG IA CCS</t>
   </si>
   <si>
-    <t>CIMS.CAN.MB.Ethanol.Steam.Cogenerators</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Biodiesel.Steam.Boilers</t>
+    <t>CIMS.CAN.MB.Biodiesel.Steam</t>
   </si>
   <si>
     <t>Biodiesel</t>
@@ -266,9 +248,6 @@
     <t>NG IA CCS</t>
   </si>
   <si>
-    <t>CIMS.CAN.MB.Biodiesel.Steam.Cogenerators</t>
-  </si>
-  <si>
     <t>CIMS.CAN.MB.Metal Smelting.Primary Metals.Copper.Metallurgy.Pyro Metallurgy.Smelting Process.Conventional Smelting.Smelt</t>
   </si>
   <si>
@@ -335,7 +314,7 @@
     <t>Scynchronous AC motor 500 hp</t>
   </si>
   <si>
-    <t>CIMS.CAN.MB.Light Industrial.Steam.Boilers</t>
+    <t>CIMS.CAN.MB.Light Industrial.Steam</t>
   </si>
   <si>
     <t>Light Industrial</t>
@@ -347,43 +326,64 @@
     <t>Fuel Oil</t>
   </si>
   <si>
-    <t>CIMS.CAN.MB.Transportation Personal.Passenger Vehicles.Existing.Old Car</t>
+    <t>CIMS.CAN.MB.Residential.Dwellings.Building Type.High Density.Vintage.&lt;1960 Bldg Code.Heating (Cold)</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>Heating (Cold)</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Residential.Dwellings.Building Type.High Density.Vintage.1961-1980 Bldg Code.Heating (Cold)</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Residential.Dwellings.Building Type.High Density.Vintage.1981-2000 Bldg Code.Heating (Cold)</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Residential.Dwellings.Building Type.High Density.Vintage.2001-2020 Bldg Code.Heating (Cold)</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Residential.Dwellings.Building Type.High Density.Vintage.2021-2035 Bldg Code.Heating (Cold)</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Residential.Dwellings.Building Type.High Density.Vintage.&gt;2035 Bldg Code.Heating (Cold)</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Residential.Dwellings.Building Type.LowMed Density.Vintage.&lt;1960 Bldg Code.Heating (Cold)</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Residential.Dwellings.Building Type.LowMed Density.Vintage.1961-1980 Bldg Code.Heating (Cold)</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Residential.Dwellings.Building Type.LowMed Density.Vintage.1981-2000 Bldg Code.Heating (Cold)</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Residential.Dwellings.Building Type.LowMed Density.Vintage.2001-2020 Bldg Code.Heating (Cold)</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Residential.Dwellings.Building Type.LowMed Density.Vintage.2021-2035 Bldg Code.Heating (Cold)</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Residential.Dwellings.Building Type.LowMed Density.Vintage.&gt;2035 Bldg Code.Heating (Cold)</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Transportation Personal.Passenger Vehicles</t>
   </si>
   <si>
     <t>Transportation Personal</t>
   </si>
   <si>
-    <t>Old Car</t>
-  </si>
-  <si>
-    <t>Higher Efficiency pre-1991</t>
-  </si>
-  <si>
-    <t>Lower Efficiency pre-1991</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Transportation Personal.Transit.Rapid Transit</t>
-  </si>
-  <si>
-    <t>Rapid Transit</t>
-  </si>
-  <si>
-    <t>Heavy Rail</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Transportation Freight.Freight.Air</t>
-  </si>
-  <si>
-    <t>Transportation Freight</t>
-  </si>
-  <si>
-    <t>Air</t>
-  </si>
-  <si>
-    <t>Domestic</t>
-  </si>
-  <si>
-    <t>International</t>
+    <t>Passenger Vehicles</t>
+  </si>
+  <si>
+    <t>Light Truck_large</t>
+  </si>
+  <si>
+    <t>Keep large trucks under control in forecast years</t>
   </si>
   <si>
     <t>CIMS.CAN.MB.Agriculture.Process.Soils</t>
@@ -398,58 +398,31 @@
     <t>Zero Tillage</t>
   </si>
   <si>
-    <t>CIMS.CAN.MB.Residential.Buildings.Ranges</t>
-  </si>
-  <si>
-    <t>Residential</t>
-  </si>
-  <si>
-    <t>Ranges</t>
-  </si>
-  <si>
-    <t>NG existing</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Residential.Buildings.Non-appliance Hot Water</t>
-  </si>
-  <si>
-    <t>Non-appliance Hot Water</t>
-  </si>
-  <si>
-    <t>Low flow devices</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Residential.Space Heating</t>
-  </si>
-  <si>
-    <t>Space Heating</t>
-  </si>
-  <si>
-    <t>Wood stove efficient</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Residential.Clothes Drying.Machine</t>
-  </si>
-  <si>
-    <t>Machine</t>
-  </si>
-  <si>
-    <t>NG Std</t>
-  </si>
-  <si>
-    <t>NG heat pump</t>
-  </si>
-  <si>
-    <t>Retrofit_new_max</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Residential.Water Heating.House</t>
-  </si>
-  <si>
-    <t>House</t>
-  </si>
-  <si>
-    <t>Oil existing</t>
+    <t>CIMS.CAN.MB.Mining.Methane Fuel</t>
+  </si>
+  <si>
+    <t>Methane Fuel</t>
+  </si>
+  <si>
+    <t>Biogas</t>
+  </si>
+  <si>
+    <t>Quick method to simulate ethanol feedstock limits (with FIC) - REPLACE WITH SOMETHING BETTER!</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Metal Smelting.Methane Fuel</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Light Industrial.Methane Fuel</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Residential.Methane Blend</t>
+  </si>
+  <si>
+    <t>Methane Blend</t>
+  </si>
+  <si>
+    <t>Solid Biomass</t>
   </si>
 </sst>
 </file>
@@ -820,11 +793,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE82608-A040-47A9-A387-C50DF0713DD8}">
-  <dimension ref="A1:X74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7E0047-A38A-4E80-B5F2-39723E684A74}">
+  <dimension ref="A1:X221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X74"/>
+      <selection sqref="A1:X221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,7 +942,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -978,13 +951,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -1028,7 +1001,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1037,57 +1010,57 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="Q5">
-        <v>9.9999999999989008E-4</v>
+        <v>0.9</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1096,7 +1069,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -1105,7 +1078,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
         <v>20</v>
@@ -1146,7 +1119,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1155,57 +1128,57 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
         <v>20</v>
       </c>
       <c r="M7">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="N7">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="O7">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="P7">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="Q7">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="R7">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="S7">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="T7">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="U7">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="V7">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="W7">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1214,13 +1187,13 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -1264,7 +1237,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1273,13 +1246,13 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -1323,7 +1296,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -1332,13 +1305,13 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
@@ -1382,7 +1355,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1391,13 +1364,13 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -1450,13 +1423,13 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
@@ -1500,7 +1473,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -1509,13 +1482,13 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
@@ -1559,7 +1532,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -1568,13 +1541,13 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -1618,7 +1591,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -1627,13 +1600,13 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1677,7 +1650,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1686,13 +1659,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
@@ -1736,7 +1709,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -1745,13 +1718,13 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
@@ -1795,7 +1768,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -1804,10 +1777,10 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
         <v>47</v>
@@ -1854,7 +1827,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1863,13 +1836,13 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
@@ -1913,7 +1886,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1922,13 +1895,13 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
@@ -1972,7 +1945,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -1981,13 +1954,13 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
         <v>19</v>
@@ -2031,7 +2004,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -2040,13 +2013,13 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
@@ -2090,7 +2063,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -2099,13 +2072,13 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
         <v>19</v>
@@ -2149,7 +2122,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -2158,10 +2131,10 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
         <v>57</v>
@@ -2173,42 +2146,42 @@
         <v>20</v>
       </c>
       <c r="M24">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N24">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O24">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P24">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q24">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="R24">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="S24">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="T24">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="U24">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="V24">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="W24">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -2217,57 +2190,57 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L25" t="s">
         <v>20</v>
       </c>
       <c r="M25">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="N25">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="O25">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="P25">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="Q25">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="R25">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="S25">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="T25">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="U25">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="V25">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="W25">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -2276,57 +2249,57 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
         <v>60</v>
       </c>
-      <c r="F26" t="s">
-        <v>61</v>
-      </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L26" t="s">
         <v>20</v>
       </c>
       <c r="M26">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="N26">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="O26">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="P26">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="Q26">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="R26">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="S26">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="T26">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="U26">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="V26">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="W26">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -2335,57 +2308,57 @@
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L27" t="s">
         <v>20</v>
       </c>
       <c r="M27">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="N27">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="O27">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="P27">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="Q27">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="S27">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="T27">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="U27">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="V27">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="W27">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -2394,52 +2367,52 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L28" t="s">
         <v>20</v>
       </c>
       <c r="M28">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="N28">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="O28">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="P28">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="R28">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="S28">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="T28">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="U28">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="V28">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="W28">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -2453,13 +2426,13 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" t="s">
         <v>19</v>
@@ -2468,42 +2441,42 @@
         <v>20</v>
       </c>
       <c r="M29">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>0.1</v>
+        <v>9.9999999999989008E-4</v>
       </c>
       <c r="R29">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="S29">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="T29">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="U29">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="V29">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W29">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -2512,13 +2485,13 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G30" t="s">
         <v>19</v>
@@ -2562,7 +2535,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -2571,13 +2544,13 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
         <v>19</v>
@@ -2621,7 +2594,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -2633,10 +2606,10 @@
         <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
@@ -2680,7 +2653,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -2689,13 +2662,13 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G33" t="s">
         <v>19</v>
@@ -2739,7 +2712,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -2748,13 +2721,13 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
         <v>19</v>
@@ -2798,7 +2771,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -2807,57 +2780,57 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s">
         <v>73</v>
       </c>
-      <c r="E35" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" t="s">
-        <v>24</v>
-      </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L35" t="s">
         <v>20</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q35">
-        <v>9.9999999999989008E-4</v>
+        <v>0.2</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="V35">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -2866,57 +2839,57 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L36" t="s">
         <v>20</v>
       </c>
       <c r="M36">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="N36">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="O36">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="P36">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="Q36">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="R36">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="S36">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="T36">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="U36">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="V36">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="W36">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -2925,57 +2898,57 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L37" t="s">
         <v>20</v>
       </c>
       <c r="M37">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="N37">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="O37">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="P37">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="Q37">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="S37">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="T37">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="U37">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="V37">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="W37">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -2984,16 +2957,16 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" t="s">
         <v>78</v>
       </c>
-      <c r="E38" t="s">
-        <v>83</v>
-      </c>
-      <c r="F38" t="s">
-        <v>84</v>
-      </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L38" t="s">
         <v>20</v>
@@ -3034,7 +3007,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -3043,13 +3016,13 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -3058,42 +3031,42 @@
         <v>20</v>
       </c>
       <c r="M39">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N39">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O39">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P39">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q39">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R39">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S39">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T39">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U39">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="V39">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="W39">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -3102,13 +3075,13 @@
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
         <v>19</v>
@@ -3152,7 +3125,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -3161,13 +3134,13 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
         <v>19</v>
@@ -3211,7 +3184,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -3220,13 +3193,13 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -3270,7 +3243,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -3279,13 +3252,13 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E43" t="s">
         <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
         <v>19</v>
@@ -3329,7 +3302,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -3338,13 +3311,13 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
         <v>19</v>
@@ -3388,7 +3361,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -3397,10 +3370,10 @@
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
         <v>47</v>
@@ -3447,7 +3420,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -3456,13 +3429,13 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s">
         <v>19</v>
@@ -3506,7 +3479,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -3515,13 +3488,13 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3565,7 +3538,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -3574,13 +3547,13 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
@@ -3624,7 +3597,7 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -3633,13 +3606,13 @@
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
@@ -3683,7 +3656,7 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -3692,13 +3665,13 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G50" t="s">
         <v>19</v>
@@ -3742,7 +3715,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -3751,10 +3724,10 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F51" t="s">
         <v>57</v>
@@ -3766,42 +3739,42 @@
         <v>20</v>
       </c>
       <c r="M51">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="N51">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="O51">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="P51">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Q51">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="R51">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="S51">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="T51">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="U51">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="V51">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="W51">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -3810,13 +3783,13 @@
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="G52" t="s">
         <v>19</v>
@@ -3825,42 +3798,42 @@
         <v>20</v>
       </c>
       <c r="M52">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="N52">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="O52">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="P52">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="Q52">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="R52">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="S52">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="T52">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="U52">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="V52">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="W52">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -3869,13 +3842,13 @@
         <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G53" t="s">
         <v>19</v>
@@ -3884,42 +3857,42 @@
         <v>20</v>
       </c>
       <c r="M53">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="N53">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="P53">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="S53">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="T53">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -3928,13 +3901,13 @@
         <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E54" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G54" t="s">
         <v>19</v>
@@ -3943,58 +3916,58 @@
         <v>20</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" t="s">
         <v>99</v>
       </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" t="s">
-        <v>68</v>
-      </c>
-      <c r="F55" t="s">
-        <v>102</v>
-      </c>
       <c r="G55" t="s">
         <v>19</v>
       </c>
@@ -4002,57 +3975,67 @@
         <v>20</v>
       </c>
       <c r="M55">
-        <v>0.01</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N55">
-        <v>0.01</v>
+        <f t="shared" ref="N55:W70" si="0">M55</f>
+        <v>2.7E-2</v>
       </c>
       <c r="O55">
-        <v>0.01</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="P55">
-        <v>0.01</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="Q55">
-        <v>0.01</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="R55">
-        <v>0.01</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="S55">
-        <v>0.01</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="T55">
-        <v>0.01</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="U55">
-        <v>0.01</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="V55">
-        <v>0.01</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="W55">
-        <v>0.01</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G56" t="s">
         <v>19</v>
@@ -4061,116 +4044,136 @@
         <v>20</v>
       </c>
       <c r="M56">
-        <v>0.5</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N56">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="O56">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="P56">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="Q56">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="R56">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="S56">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="T56">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="U56">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="V56">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="W56">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
         <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F57" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L57" t="s">
         <v>20</v>
       </c>
       <c r="M57">
-        <v>0.5</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N57">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="O57">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="P57">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="Q57">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="R57">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="S57">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="T57">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="U57">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="V57">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="W57">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F58" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G58" t="s">
         <v>19</v>
@@ -4179,37 +4182,47 @@
         <v>20</v>
       </c>
       <c r="M58">
-        <v>0.5</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N58">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="O58">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="P58">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="Q58">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="R58">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="S58">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="T58">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="U58">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="V58">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="W58">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
@@ -4217,137 +4230,157 @@
         <v>103</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E59" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F59" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L59" t="s">
         <v>20</v>
       </c>
       <c r="M59">
-        <v>0.5</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N59">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="O59">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="P59">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="Q59">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="R59">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="S59">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="T59">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="U59">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="V59">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="W59">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F60" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L60" t="s">
         <v>20</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="U60">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="V60">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="G61" t="s">
         <v>19</v>
@@ -4356,116 +4389,136 @@
         <v>20</v>
       </c>
       <c r="M61">
-        <v>0.91175093632958804</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N61">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="O61">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="P61">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="Q61">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="R61">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="S61">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="T61">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="U61">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="V61">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="W61">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L62" t="s">
         <v>20</v>
       </c>
       <c r="M62">
-        <v>0.91175093632958804</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N62">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="O62">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="P62">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="Q62">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="R62">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="S62">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="T62">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="U62">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="V62">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="W62">
-        <v>0.91175093632958804</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F63" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
@@ -4474,726 +4527,1573 @@
         <v>20</v>
       </c>
       <c r="M63">
-        <v>8.8249063670411895E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N63">
-        <v>8.8249063670411895E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="O63">
-        <v>8.8249063670411895E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="P63">
-        <v>8.8249063670411895E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="Q63">
-        <v>8.8249063670411895E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="R63">
-        <v>8.8249063670411895E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="S63">
-        <v>8.8249063670411895E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="T63">
-        <v>8.8249063670411895E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="U63">
-        <v>8.8249063670411895E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="V63">
-        <v>8.8249063670411895E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="W63">
-        <v>8.8249063670411895E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" t="s">
+        <v>98</v>
+      </c>
+      <c r="F64" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" t="s">
+        <v>98</v>
+      </c>
+      <c r="F65" t="s">
+        <v>99</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" t="s">
+        <v>98</v>
+      </c>
+      <c r="F66" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+      <c r="L66" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" t="s">
+        <v>98</v>
+      </c>
+      <c r="F67" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" t="s">
+        <v>26</v>
+      </c>
+      <c r="L67" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" t="s">
+        <v>98</v>
+      </c>
+      <c r="F68" t="s">
+        <v>99</v>
+      </c>
+      <c r="G68" t="s">
+        <v>26</v>
+      </c>
+      <c r="L68" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" t="s">
+        <v>98</v>
+      </c>
+      <c r="F69" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
+      <c r="L69" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" t="s">
+        <v>98</v>
+      </c>
+      <c r="F70" t="s">
+        <v>99</v>
+      </c>
+      <c r="G70" t="s">
+        <v>26</v>
+      </c>
+      <c r="L70" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" t="s">
+        <v>98</v>
+      </c>
+      <c r="F71" t="s">
+        <v>99</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="L71" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N71">
+        <f t="shared" ref="N71:W79" si="1">M71</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" t="s">
+        <v>98</v>
+      </c>
+      <c r="F72" t="s">
+        <v>99</v>
+      </c>
+      <c r="G72" t="s">
+        <v>26</v>
+      </c>
+      <c r="L72" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" t="s">
+        <v>99</v>
+      </c>
+      <c r="G73" t="s">
+        <v>26</v>
+      </c>
+      <c r="L73" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" t="s">
+        <v>98</v>
+      </c>
+      <c r="F74" t="s">
+        <v>99</v>
+      </c>
+      <c r="G74" t="s">
+        <v>26</v>
+      </c>
+      <c r="L74" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" t="s">
+        <v>98</v>
+      </c>
+      <c r="F75" t="s">
+        <v>99</v>
+      </c>
+      <c r="G75" t="s">
+        <v>26</v>
+      </c>
+      <c r="L75" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" t="s">
+        <v>98</v>
+      </c>
+      <c r="F76" t="s">
+        <v>99</v>
+      </c>
+      <c r="G76" t="s">
+        <v>26</v>
+      </c>
+      <c r="L76" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" t="s">
+        <v>98</v>
+      </c>
+      <c r="F77" t="s">
+        <v>99</v>
+      </c>
+      <c r="G77" t="s">
+        <v>26</v>
+      </c>
+      <c r="L77" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" t="s">
+        <v>98</v>
+      </c>
+      <c r="F78" t="s">
+        <v>99</v>
+      </c>
+      <c r="G78" t="s">
+        <v>26</v>
+      </c>
+      <c r="L78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N78">
+        <f>M78</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>111</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B79" t="s">
         <v>5</v>
       </c>
-      <c r="C64" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
         <v>112</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E79" t="s">
         <v>113</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F79" t="s">
+        <v>114</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+      <c r="L79" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79">
+        <v>0.4</v>
+      </c>
+      <c r="N79">
+        <f>M79</f>
+        <v>0.4</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="X79" t="s">
         <v>115</v>
       </c>
-      <c r="G64" t="s">
-        <v>30</v>
-      </c>
-      <c r="L64" t="s">
-        <v>20</v>
-      </c>
-      <c r="M64">
-        <v>8.8249063670411895E-2</v>
-      </c>
-      <c r="N64">
-        <v>8.8249063670411895E-2</v>
-      </c>
-      <c r="O64">
-        <v>8.8249063670411895E-2</v>
-      </c>
-      <c r="P64">
-        <v>8.8249063670411895E-2</v>
-      </c>
-      <c r="Q64">
-        <v>8.8249063670411895E-2</v>
-      </c>
-      <c r="R64">
-        <v>8.8249063670411895E-2</v>
-      </c>
-      <c r="S64">
-        <v>8.8249063670411895E-2</v>
-      </c>
-      <c r="T64">
-        <v>8.8249063670411895E-2</v>
-      </c>
-      <c r="U64">
-        <v>8.8249063670411895E-2</v>
-      </c>
-      <c r="V64">
-        <v>8.8249063670411895E-2</v>
-      </c>
-      <c r="W64">
-        <v>8.8249063670411895E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>116</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B80" t="s">
         <v>5</v>
       </c>
-      <c r="C65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
         <v>117</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E80" t="s">
         <v>118</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F80" t="s">
         <v>119</v>
       </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
-      <c r="L65" t="s">
-        <v>20</v>
-      </c>
-      <c r="M65">
+      <c r="G80" t="s">
+        <v>19</v>
+      </c>
+      <c r="L80" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80">
         <v>0.95</v>
       </c>
-      <c r="N65">
+      <c r="N80">
         <v>0.95</v>
       </c>
-      <c r="O65">
+      <c r="O80">
         <v>0.95</v>
       </c>
-      <c r="P65">
+      <c r="P80">
         <v>0.95</v>
       </c>
-      <c r="Q65">
+      <c r="Q80">
         <v>0.95</v>
       </c>
-      <c r="R65">
+      <c r="R80">
         <v>0.95</v>
       </c>
-      <c r="S65">
+      <c r="S80">
         <v>0.95</v>
       </c>
-      <c r="T65">
+      <c r="T80">
         <v>0.95</v>
       </c>
-      <c r="U65">
+      <c r="U80">
         <v>0.95</v>
       </c>
-      <c r="V65">
+      <c r="V80">
         <v>0.95</v>
       </c>
-      <c r="W65">
+      <c r="W80">
         <v>0.95</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>120</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B81" t="s">
         <v>5</v>
       </c>
-      <c r="C66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" t="s">
         <v>121</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F81" t="s">
         <v>122</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G81" t="s">
+        <v>19</v>
+      </c>
+      <c r="L81" t="s">
+        <v>20</v>
+      </c>
+      <c r="M81">
+        <v>0.01</v>
+      </c>
+      <c r="N81">
+        <v>0.01</v>
+      </c>
+      <c r="O81">
+        <v>0.01</v>
+      </c>
+      <c r="P81">
+        <v>0.01</v>
+      </c>
+      <c r="Q81">
+        <v>0.01</v>
+      </c>
+      <c r="R81">
+        <v>0.01</v>
+      </c>
+      <c r="S81">
+        <v>0.01</v>
+      </c>
+      <c r="T81">
+        <v>0.01</v>
+      </c>
+      <c r="U81">
+        <v>0.01</v>
+      </c>
+      <c r="V81">
+        <v>0.01</v>
+      </c>
+      <c r="W81">
+        <v>0.01</v>
+      </c>
+      <c r="X81" t="s">
         <v>123</v>
       </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
-      <c r="L66" t="s">
-        <v>20</v>
-      </c>
-      <c r="M66">
-        <v>0.15</v>
-      </c>
-      <c r="N66">
-        <v>0.15</v>
-      </c>
-      <c r="O66">
-        <v>0.15</v>
-      </c>
-      <c r="P66">
-        <v>0.15</v>
-      </c>
-      <c r="Q66">
-        <v>0.15</v>
-      </c>
-      <c r="R66">
-        <v>0.15</v>
-      </c>
-      <c r="S66">
-        <v>0.15</v>
-      </c>
-      <c r="T66">
-        <v>0.15</v>
-      </c>
-      <c r="U66">
-        <v>0.15</v>
-      </c>
-      <c r="V66">
-        <v>0.15</v>
-      </c>
-      <c r="W66">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>124</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B82" t="s">
         <v>5</v>
       </c>
-      <c r="C67" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>71</v>
+      </c>
+      <c r="E82" t="s">
         <v>121</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F82" t="s">
+        <v>122</v>
+      </c>
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+      <c r="L82" t="s">
+        <v>20</v>
+      </c>
+      <c r="M82">
+        <v>0.01</v>
+      </c>
+      <c r="N82">
+        <v>0.01</v>
+      </c>
+      <c r="O82">
+        <v>0.01</v>
+      </c>
+      <c r="P82">
+        <v>0.01</v>
+      </c>
+      <c r="Q82">
+        <v>0.01</v>
+      </c>
+      <c r="R82">
+        <v>0.01</v>
+      </c>
+      <c r="S82">
+        <v>0.01</v>
+      </c>
+      <c r="T82">
+        <v>0.01</v>
+      </c>
+      <c r="U82">
+        <v>0.01</v>
+      </c>
+      <c r="V82">
+        <v>0.01</v>
+      </c>
+      <c r="W82">
+        <v>0.01</v>
+      </c>
+      <c r="X82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>125</v>
       </c>
-      <c r="F67" t="s">
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>93</v>
+      </c>
+      <c r="E83" t="s">
+        <v>121</v>
+      </c>
+      <c r="F83" t="s">
+        <v>122</v>
+      </c>
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83" t="s">
+        <v>20</v>
+      </c>
+      <c r="M83">
+        <v>0.01</v>
+      </c>
+      <c r="N83">
+        <v>0.01</v>
+      </c>
+      <c r="O83">
+        <v>0.01</v>
+      </c>
+      <c r="P83">
+        <v>0.01</v>
+      </c>
+      <c r="Q83">
+        <v>0.01</v>
+      </c>
+      <c r="R83">
+        <v>0.01</v>
+      </c>
+      <c r="S83">
+        <v>0.01</v>
+      </c>
+      <c r="T83">
+        <v>0.01</v>
+      </c>
+      <c r="U83">
+        <v>0.01</v>
+      </c>
+      <c r="V83">
+        <v>0.01</v>
+      </c>
+      <c r="W83">
+        <v>0.01</v>
+      </c>
+      <c r="X83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>126</v>
       </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
-      <c r="L67" t="s">
-        <v>20</v>
-      </c>
-      <c r="M67">
-        <v>0.4</v>
-      </c>
-      <c r="N67">
-        <v>0.65</v>
-      </c>
-      <c r="O67">
-        <v>0.9</v>
-      </c>
-      <c r="P67">
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" t="s">
+        <v>127</v>
+      </c>
+      <c r="F84" t="s">
+        <v>122</v>
+      </c>
+      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+      <c r="L84" t="s">
+        <v>20</v>
+      </c>
+      <c r="M84">
+        <v>0.01</v>
+      </c>
+      <c r="N84">
+        <v>0.01</v>
+      </c>
+      <c r="O84">
+        <v>0.01</v>
+      </c>
+      <c r="P84">
+        <v>0.01</v>
+      </c>
+      <c r="Q84">
+        <v>0.01</v>
+      </c>
+      <c r="R84">
+        <v>0.01</v>
+      </c>
+      <c r="S84">
+        <v>0.01</v>
+      </c>
+      <c r="T84">
+        <v>0.01</v>
+      </c>
+      <c r="U84">
+        <v>0.01</v>
+      </c>
+      <c r="V84">
+        <v>0.01</v>
+      </c>
+      <c r="W84">
+        <v>0.01</v>
+      </c>
+      <c r="X84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>126</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>97</v>
+      </c>
+      <c r="E85" t="s">
+        <v>127</v>
+      </c>
+      <c r="F85" t="s">
+        <v>128</v>
+      </c>
+      <c r="G85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L85" t="s">
+        <v>20</v>
+      </c>
+      <c r="M85">
+        <v>0.01</v>
+      </c>
+      <c r="N85">
+        <v>0.01</v>
+      </c>
+      <c r="O85">
+        <v>0.01</v>
+      </c>
+      <c r="P85">
+        <v>0.01</v>
+      </c>
+      <c r="Q85">
+        <v>0.01</v>
+      </c>
+      <c r="R85">
+        <v>0.01</v>
+      </c>
+      <c r="S85">
+        <v>0.01</v>
+      </c>
+      <c r="T85">
+        <v>0.01</v>
+      </c>
+      <c r="U85">
+        <v>0.01</v>
+      </c>
+      <c r="V85">
+        <v>0.01</v>
+      </c>
+      <c r="W85">
+        <v>0.01</v>
+      </c>
+      <c r="X85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="209" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="N209">
+        <f>M209</f>
+        <v>0</v>
+      </c>
+      <c r="O209">
+        <f t="shared" ref="O209:W209" si="2">N209</f>
+        <v>0</v>
+      </c>
+      <c r="P209">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q209">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R209">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S209">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T209">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U209">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V209">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W209">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X209" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="221" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="M221">
         <v>1</v>
-      </c>
-      <c r="Q67">
-        <v>1</v>
-      </c>
-      <c r="R67">
-        <v>1</v>
-      </c>
-      <c r="S67">
-        <v>1</v>
-      </c>
-      <c r="T67">
-        <v>1</v>
-      </c>
-      <c r="U67">
-        <v>1</v>
-      </c>
-      <c r="V67">
-        <v>1</v>
-      </c>
-      <c r="W67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E68" t="s">
-        <v>128</v>
-      </c>
-      <c r="F68" t="s">
-        <v>129</v>
-      </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
-      <c r="L68" t="s">
-        <v>20</v>
-      </c>
-      <c r="M68">
-        <v>2.7E-2</v>
-      </c>
-      <c r="N68">
-        <v>2.7E-2</v>
-      </c>
-      <c r="O68">
-        <v>2.7E-2</v>
-      </c>
-      <c r="P68">
-        <v>2.7E-2</v>
-      </c>
-      <c r="Q68">
-        <v>2.7E-2</v>
-      </c>
-      <c r="R68">
-        <v>2.7E-2</v>
-      </c>
-      <c r="S68">
-        <v>2.7E-2</v>
-      </c>
-      <c r="T68">
-        <v>2.7E-2</v>
-      </c>
-      <c r="U68">
-        <v>2.7E-2</v>
-      </c>
-      <c r="V68">
-        <v>2.7E-2</v>
-      </c>
-      <c r="W68">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>127</v>
-      </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" t="s">
-        <v>121</v>
-      </c>
-      <c r="E69" t="s">
-        <v>128</v>
-      </c>
-      <c r="F69" t="s">
-        <v>129</v>
-      </c>
-      <c r="G69" t="s">
-        <v>30</v>
-      </c>
-      <c r="L69" t="s">
-        <v>20</v>
-      </c>
-      <c r="M69">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="N69">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="O69">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="P69">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="Q69">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="R69">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="S69">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="T69">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="U69">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="V69">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="W69">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>130</v>
-      </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" t="s">
-        <v>121</v>
-      </c>
-      <c r="E70" t="s">
-        <v>131</v>
-      </c>
-      <c r="F70" t="s">
-        <v>132</v>
-      </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
-      <c r="L70" t="s">
-        <v>20</v>
-      </c>
-      <c r="M70">
-        <v>0.02</v>
-      </c>
-      <c r="N70">
-        <f t="shared" ref="N70:W73" si="0">M70</f>
-        <v>0.02</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-      <c r="P70">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-      <c r="Q70">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-      <c r="R70">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-      <c r="S70">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-      <c r="T70">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-      <c r="U70">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-      <c r="V70">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-      <c r="W70">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>130</v>
-      </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" t="s">
-        <v>121</v>
-      </c>
-      <c r="E71" t="s">
-        <v>131</v>
-      </c>
-      <c r="F71" t="s">
-        <v>133</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
-      <c r="L71" t="s">
-        <v>20</v>
-      </c>
-      <c r="M71">
-        <v>0.05</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q71">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="R71">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="S71">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="T71">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="U71">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="V71">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="W71">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" t="s">
-        <v>121</v>
-      </c>
-      <c r="E72" t="s">
-        <v>131</v>
-      </c>
-      <c r="F72" t="s">
-        <v>132</v>
-      </c>
-      <c r="G72" t="s">
-        <v>134</v>
-      </c>
-      <c r="L72" t="s">
-        <v>20</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>130</v>
-      </c>
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" t="s">
-        <v>121</v>
-      </c>
-      <c r="E73" t="s">
-        <v>131</v>
-      </c>
-      <c r="F73" t="s">
-        <v>133</v>
-      </c>
-      <c r="G73" t="s">
-        <v>134</v>
-      </c>
-      <c r="L73" t="s">
-        <v>20</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>135</v>
-      </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" t="s">
-        <v>121</v>
-      </c>
-      <c r="E74" t="s">
-        <v>136</v>
-      </c>
-      <c r="F74" t="s">
-        <v>137</v>
-      </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
-      <c r="L74" t="s">
-        <v>20</v>
-      </c>
-      <c r="M74">
-        <v>0.03</v>
-      </c>
-      <c r="N74">
-        <v>0.03</v>
-      </c>
-      <c r="O74">
-        <v>0.03</v>
-      </c>
-      <c r="P74">
-        <v>0.03</v>
-      </c>
-      <c r="Q74">
-        <v>0.03</v>
-      </c>
-      <c r="R74">
-        <v>0.03</v>
-      </c>
-      <c r="S74">
-        <v>0.03</v>
-      </c>
-      <c r="T74">
-        <v>0.03</v>
-      </c>
-      <c r="U74">
-        <v>0.03</v>
-      </c>
-      <c r="V74">
-        <v>0.03</v>
-      </c>
-      <c r="W74">
-        <v>0.03</v>
       </c>
     </row>
   </sheetData>
